--- a/mythril/0.24.7_smartbugs-curated/acurado.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/acurado.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.6511627906976745</v>
       </c>
     </row>
     <row r="10">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +687,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/mythril/0.24.7_smartbugs-curated/acurado.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/acurado.xlsx
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
@@ -476,10 +476,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6296296296296297</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6538461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.696969696969697</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5227272727272727</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.696969696969697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5531914893617021</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5531914893617021</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5283018867924528</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
-        <v>0.345679012345679</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +687,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.345679012345679</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
